--- a/data_voor_swing/aggregatietabellen/kernwinkelgebied_dummy_gemeente.xlsx
+++ b/data_voor_swing/aggregatietabellen/kernwinkelgebied_dummy_gemeente.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,6 +1360,30 @@
         <v>44085</v>
       </c>
     </row>
+    <row r="122" spans="1:2" s="0" outlineLevel="0">
+      <c r="A122" s="23">
+        <v>10171</v>
+      </c>
+      <c r="B122" s="23">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="0" outlineLevel="0">
+      <c r="A123" s="23">
+        <v>10172</v>
+      </c>
+      <c r="B123" s="23">
+        <v>11039</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="0" outlineLevel="0">
+      <c r="A124" s="23">
+        <v>10173</v>
+      </c>
+      <c r="B124" s="23">
+        <v>11039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/aggregatietabellen/kernwinkelgebied_dummy_gemeente.xlsx
+++ b/data_voor_swing/aggregatietabellen/kernwinkelgebied_dummy_gemeente.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\aggregatietabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\data_voor_swing\aggregatietabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB4010B-1667-4C29-9F80-51A292A70E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E0775-2704-49D2-B2AD-C582E7B3398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kernwinkelgebied_dummy_gemeente" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -371,7 +372,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +662,7 @@
         <v>10107</v>
       </c>
       <c r="B36" s="1">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,7 +670,7 @@
         <v>10110</v>
       </c>
       <c r="B37" s="1">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +766,7 @@
         <v>10089</v>
       </c>
       <c r="B49" s="1">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1158,7 @@
         <v>10003</v>
       </c>
       <c r="B98" s="1">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1238,7 @@
         <v>10090</v>
       </c>
       <c r="B108" s="1">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,7 +1294,7 @@
         <v>10055</v>
       </c>
       <c r="B115" s="1">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,4 +1412,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28D2E79-784E-4DD4-A2A0-9EF4FBBCBBA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>